--- a/dbcan/Mucin_Deg_Enzymes_Info.xlsx
+++ b/dbcan/Mucin_Deg_Enzymes_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/OG_MetaG/mucin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/dbcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3964" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF262E1B-21C5-40D3-92B2-AA757E1B29B2}"/>
+  <xr:revisionPtr revIDLastSave="3964" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF262E1B-21C5-40D3-92B2-AA757E1B29B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
   </bookViews>
   <sheets>
     <sheet name="Final List" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="531">
   <si>
     <t>CAZyme</t>
   </si>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
